--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
+    <t>Thy1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
-  </si>
-  <si>
-    <t>Thy1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="H2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="I2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="J2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N2">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O2">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P2">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q2">
-        <v>1.180147418499</v>
+        <v>0.30159880462</v>
       </c>
       <c r="R2">
-        <v>10.621326766491</v>
+        <v>2.71438924158</v>
       </c>
       <c r="S2">
-        <v>0.0001961310040475105</v>
+        <v>5.926870286465445E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001961310040475106</v>
+        <v>5.926870286465444E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="H3">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="I3">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="J3">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>196.650833</v>
       </c>
       <c r="O3">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P3">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q3">
-        <v>7.131236557449223</v>
+        <v>7.506249695980223</v>
       </c>
       <c r="R3">
-        <v>64.18112901704301</v>
+        <v>67.556247263822</v>
       </c>
       <c r="S3">
-        <v>0.001185154129211878</v>
+        <v>0.001475091001834338</v>
       </c>
       <c r="T3">
-        <v>0.001185154129211879</v>
+        <v>0.001475091001834338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="H4">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="I4">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="J4">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N4">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O4">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P4">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q4">
-        <v>1.451288032179889</v>
+        <v>1.175134044354889</v>
       </c>
       <c r="R4">
-        <v>13.061592289619</v>
+        <v>10.576206399194</v>
       </c>
       <c r="S4">
-        <v>0.000241192392112849</v>
+        <v>0.0002309315203976473</v>
       </c>
       <c r="T4">
-        <v>0.0002411923921128492</v>
+        <v>0.0002309315203976473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="H5">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="I5">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="J5">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N5">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O5">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P5">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q5">
-        <v>0.0462187753208889</v>
+        <v>0.102151896104</v>
       </c>
       <c r="R5">
-        <v>0.4159689778880001</v>
+        <v>0.9193670649360001</v>
       </c>
       <c r="S5">
-        <v>7.68118852563496E-06</v>
+        <v>2.007438452840453E-05</v>
       </c>
       <c r="T5">
-        <v>7.681188525634963E-06</v>
+        <v>2.007438452840453E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.402575</v>
       </c>
       <c r="I6">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="J6">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N6">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O6">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P6">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q6">
-        <v>5.071667720175001</v>
+        <v>1.23136266975</v>
       </c>
       <c r="R6">
-        <v>45.64500948157501</v>
+        <v>11.08226402775</v>
       </c>
       <c r="S6">
-        <v>0.0008428703622623858</v>
+        <v>0.0002419812912852664</v>
       </c>
       <c r="T6">
-        <v>0.0008428703622623862</v>
+        <v>0.0002419812912852664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.402575</v>
       </c>
       <c r="I7">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="J7">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>196.650833</v>
       </c>
       <c r="O7">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P7">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q7">
         <v>30.64639356610834</v>
@@ -883,10 +883,10 @@
         <v>275.817542094975</v>
       </c>
       <c r="S7">
-        <v>0.005093183992387039</v>
+        <v>0.006022477431339538</v>
       </c>
       <c r="T7">
-        <v>0.005093183992387041</v>
+        <v>0.006022477431339537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>1.402575</v>
       </c>
       <c r="I8">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="J8">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N8">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O8">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P8">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q8">
-        <v>6.236890874908334</v>
+        <v>4.797818068258334</v>
       </c>
       <c r="R8">
-        <v>56.13201787417501</v>
+        <v>43.18036261432501</v>
       </c>
       <c r="S8">
-        <v>0.001036521073770891</v>
+        <v>0.0009428434368118735</v>
       </c>
       <c r="T8">
-        <v>0.001036521073770891</v>
+        <v>0.0009428434368118735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>1.402575</v>
       </c>
       <c r="I9">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="J9">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N9">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O9">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P9">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q9">
-        <v>0.1986245677333334</v>
+        <v>0.4170640917000001</v>
       </c>
       <c r="R9">
-        <v>1.7876211096</v>
+        <v>3.753576825300001</v>
       </c>
       <c r="S9">
-        <v>3.300980478149852E-05</v>
+        <v>8.195936902876277E-05</v>
       </c>
       <c r="T9">
-        <v>3.300980478149854E-05</v>
+        <v>8.195936902876275E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="H10">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="I10">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="J10">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N10">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O10">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P10">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q10">
-        <v>8.834954913204001</v>
+        <v>167.39535382086</v>
       </c>
       <c r="R10">
-        <v>79.51459421883601</v>
+        <v>1506.55818438774</v>
       </c>
       <c r="S10">
-        <v>0.001468298409740287</v>
+        <v>0.03289570560146157</v>
       </c>
       <c r="T10">
-        <v>0.001468298409740288</v>
+        <v>0.03289570560146157</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="H11">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="I11">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="J11">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>196.650833</v>
       </c>
       <c r="O11">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P11">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q11">
-        <v>53.38668074246978</v>
+        <v>4166.168116314241</v>
       </c>
       <c r="R11">
-        <v>480.480126682228</v>
+        <v>37495.51304682816</v>
       </c>
       <c r="S11">
-        <v>0.008872436724983069</v>
+        <v>0.8187147176565819</v>
       </c>
       <c r="T11">
-        <v>0.008872436724983073</v>
+        <v>0.8187147176565817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="H12">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="I12">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="J12">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N12">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O12">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P12">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q12">
-        <v>10.86479886274711</v>
+        <v>652.2306326431648</v>
       </c>
       <c r="R12">
-        <v>97.783189764724</v>
+        <v>5870.075693788483</v>
       </c>
       <c r="S12">
-        <v>0.001805642139551608</v>
+        <v>0.1281731325628399</v>
       </c>
       <c r="T12">
-        <v>0.001805642139551609</v>
+        <v>0.1281731325628399</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="H13">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="I13">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="J13">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N13">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O13">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P13">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q13">
-        <v>0.3460082949831111</v>
+        <v>56.69701779271201</v>
       </c>
       <c r="R13">
-        <v>3.114074654848</v>
+        <v>510.273160134408</v>
       </c>
       <c r="S13">
-        <v>5.750379422099484E-05</v>
+        <v>0.01114181704102629</v>
       </c>
       <c r="T13">
-        <v>5.750379422099487E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="H14">
-        <v>196.035851</v>
-      </c>
-      <c r="I14">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="J14">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>10.847907</v>
-      </c>
-      <c r="N14">
-        <v>32.54372100000001</v>
-      </c>
-      <c r="O14">
-        <v>0.1203140543159393</v>
-      </c>
-      <c r="P14">
-        <v>0.1203140543159394</v>
-      </c>
-      <c r="Q14">
-        <v>708.859560104619</v>
-      </c>
-      <c r="R14">
-        <v>6379.736040941571</v>
-      </c>
-      <c r="S14">
-        <v>0.1178067545398892</v>
-      </c>
-      <c r="T14">
-        <v>0.1178067545398892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="H15">
-        <v>196.035851</v>
-      </c>
-      <c r="I15">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="J15">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>65.55027766666667</v>
-      </c>
-      <c r="N15">
-        <v>196.650833</v>
-      </c>
-      <c r="O15">
-        <v>0.7270176327666009</v>
-      </c>
-      <c r="P15">
-        <v>0.7270176327666011</v>
-      </c>
-      <c r="Q15">
-        <v>4283.401488557098</v>
-      </c>
-      <c r="R15">
-        <v>38550.61339701388</v>
-      </c>
-      <c r="S15">
-        <v>0.7118668579200189</v>
-      </c>
-      <c r="T15">
-        <v>0.7118668579200192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="H16">
-        <v>196.035851</v>
-      </c>
-      <c r="I16">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="J16">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.34022966666667</v>
-      </c>
-      <c r="N16">
-        <v>40.020689</v>
-      </c>
-      <c r="O16">
-        <v>0.1479563861215291</v>
-      </c>
-      <c r="P16">
-        <v>0.1479563861215292</v>
-      </c>
-      <c r="Q16">
-        <v>871.7210917468154</v>
-      </c>
-      <c r="R16">
-        <v>7845.489825721339</v>
-      </c>
-      <c r="S16">
-        <v>0.1448730305160938</v>
-      </c>
-      <c r="T16">
-        <v>0.1448730305160939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="H17">
-        <v>196.035851</v>
-      </c>
-      <c r="I17">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="J17">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.4248426666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.274528</v>
-      </c>
-      <c r="O17">
-        <v>0.004711926795930482</v>
-      </c>
-      <c r="P17">
-        <v>0.004711926795930484</v>
-      </c>
-      <c r="Q17">
-        <v>27.76146456703644</v>
-      </c>
-      <c r="R17">
-        <v>249.853181103328</v>
-      </c>
-      <c r="S17">
-        <v>0.004613732008402354</v>
-      </c>
-      <c r="T17">
-        <v>0.004613732008402356</v>
+        <v>0.01114181704102629</v>
       </c>
     </row>
   </sheetData>
